--- a/_files/requirements/ux_enhancement/Lists/RegistrationClient_UXEnhancements.xlsx
+++ b/_files/requirements/ux_enhancement/Lists/RegistrationClient_UXEnhancements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Documents\Resham\PERSONAL\Investments_2018-19\Full\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3883F7D-33B6-43E6-9737-2ECF38192226}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{300377C9-0054-4AC0-9F27-0EF968EEC18B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stepper" sheetId="37" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Pages 141-160" sheetId="35" r:id="rId9"/>
     <sheet name="Pages 161-176" sheetId="36" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="233">
   <si>
     <t>Effort (PDs)</t>
   </si>
@@ -1067,6 +1067,12 @@
   </si>
   <si>
     <t>Page 169</t>
+  </si>
+  <si>
+    <t>Placeholder on header for adding version of Reg Client</t>
+  </si>
+  <si>
+    <t>All pages</t>
   </si>
 </sst>
 </file>
@@ -1616,13 +1622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1812,6 +1818,18 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_files/requirements/ux_enhancement/Lists/RegistrationClient_UXEnhancements.xlsx
+++ b/_files/requirements/ux_enhancement/Lists/RegistrationClient_UXEnhancements.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Documents\Resham\PERSONAL\Investments_2018-19\Full\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1037145\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3883F7D-33B6-43E6-9737-2ECF38192226}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Stepper" sheetId="37" r:id="rId1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,12 +67,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,12 +101,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,12 +135,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,12 +169,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,12 +203,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,12 +237,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,12 +271,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,12 +305,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,12 +339,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="233">
   <si>
     <t>Effort (PDs)</t>
   </si>
@@ -1067,12 +1066,18 @@
   </si>
   <si>
     <t>Page 169</t>
+  </si>
+  <si>
+    <t>Placeholder on header for adding version of Reg Client</t>
+  </si>
+  <si>
+    <t>All pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1615,41 +1620,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>204</v>
       </c>
@@ -1681,7 +1686,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>203</v>
       </c>
@@ -1693,7 +1698,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>202</v>
       </c>
@@ -1705,7 +1710,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>205</v>
       </c>
@@ -1717,7 +1722,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>206</v>
       </c>
@@ -1729,7 +1734,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>207</v>
       </c>
@@ -1741,7 +1746,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>204</v>
       </c>
@@ -1753,7 +1758,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>203</v>
       </c>
@@ -1765,7 +1770,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="26"/>
     </row>
-    <row r="13" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>202</v>
       </c>
@@ -1777,7 +1782,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="26"/>
     </row>
-    <row r="14" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>205</v>
       </c>
@@ -1789,7 +1794,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>206</v>
       </c>
@@ -1801,7 +1806,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>207</v>
       </c>
@@ -1812,6 +1817,14 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1824,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1834,27 +1847,27 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1874,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>196</v>
       </c>
@@ -1886,7 +1899,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>197</v>
       </c>
@@ -1898,7 +1911,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>197</v>
       </c>
@@ -1910,7 +1923,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>197</v>
       </c>
@@ -1922,7 +1935,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>226</v>
       </c>
@@ -1934,7 +1947,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>226</v>
       </c>
@@ -1946,7 +1959,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>226</v>
       </c>
@@ -1958,7 +1971,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>226</v>
       </c>
@@ -1970,7 +1983,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>228</v>
       </c>
@@ -1982,7 +1995,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>229</v>
       </c>
@@ -1994,7 +2007,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>230</v>
       </c>
@@ -2006,7 +2019,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>198</v>
       </c>
@@ -2018,7 +2031,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>199</v>
       </c>
@@ -2030,7 +2043,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>200</v>
       </c>
@@ -2042,7 +2055,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -2060,7 +2073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,31 +2083,31 @@
       <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="28" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2126,7 +2139,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="28" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2151,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="42" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2150,7 +2163,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2175,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2187,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2199,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2198,7 +2211,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2210,7 +2223,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -2222,7 +2235,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2234,7 +2247,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="2"/>
@@ -2242,7 +2255,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="2"/>
@@ -2250,7 +2263,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2"/>
@@ -2258,7 +2271,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
@@ -2266,7 +2279,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
@@ -2274,7 +2287,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
@@ -2282,7 +2295,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
@@ -2290,7 +2303,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
@@ -2298,7 +2311,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2326,27 +2339,27 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2391,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2403,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -2402,7 +2415,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2414,7 +2427,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
@@ -2426,7 +2439,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2438,7 +2451,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2450,7 +2463,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -2462,7 +2475,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -2474,7 +2487,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
@@ -2486,7 +2499,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2498,7 +2511,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -2510,7 +2523,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
@@ -2522,7 +2535,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2534,7 +2547,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
@@ -2546,7 +2559,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
@@ -2558,7 +2571,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
@@ -2570,7 +2583,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2582,7 +2595,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
@@ -2594,7 +2607,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2606,7 +2619,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
@@ -2618,7 +2631,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
@@ -2630,7 +2643,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
@@ -2642,7 +2655,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
@@ -2654,7 +2667,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2666,7 +2679,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>46</v>
       </c>
@@ -2678,7 +2691,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
@@ -2690,7 +2703,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
@@ -2702,7 +2715,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>48</v>
       </c>
@@ -2714,7 +2727,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
@@ -2726,7 +2739,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
@@ -2738,7 +2751,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>51</v>
       </c>
@@ -2750,7 +2763,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -2758,7 +2771,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -2766,7 +2779,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -2774,7 +2787,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -2782,7 +2795,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -2790,7 +2803,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -2798,7 +2811,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -2806,7 +2819,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -2814,7 +2827,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -2822,7 +2835,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -2830,7 +2843,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
@@ -2848,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2858,27 +2871,27 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2898,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2910,7 +2923,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2922,7 +2935,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
@@ -2934,7 +2947,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2946,7 +2959,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
@@ -2958,7 +2971,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
@@ -2970,7 +2983,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
@@ -2982,7 +2995,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -2994,7 +3007,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
@@ -3006,7 +3019,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
@@ -3018,7 +3031,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
@@ -3030,7 +3043,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
@@ -3042,7 +3055,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
@@ -3054,7 +3067,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
@@ -3066,7 +3079,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>60</v>
       </c>
@@ -3078,7 +3091,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +3103,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
@@ -3102,7 +3115,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>61</v>
       </c>
@@ -3114,7 +3127,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -3126,7 +3139,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
@@ -3138,7 +3151,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
@@ -3150,7 +3163,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -3162,7 +3175,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3174,7 +3187,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
@@ -3186,7 +3199,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
@@ -3198,7 +3211,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
@@ -3210,7 +3223,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
@@ -3222,7 +3235,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>65</v>
       </c>
@@ -3234,7 +3247,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
@@ -3246,7 +3259,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
@@ -3258,7 +3271,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>67</v>
       </c>
@@ -3270,7 +3283,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
@@ -3282,7 +3295,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
@@ -3294,7 +3307,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>68</v>
       </c>
@@ -3306,7 +3319,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>69</v>
       </c>
@@ -3318,7 +3331,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>69</v>
       </c>
@@ -3330,7 +3343,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
@@ -3342,7 +3355,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3354,7 +3367,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
@@ -3366,7 +3379,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>71</v>
       </c>
@@ -3378,7 +3391,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3403,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>73</v>
       </c>
@@ -3402,7 +3415,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>75</v>
       </c>
@@ -3414,7 +3427,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="25" t="s">
         <v>1</v>
       </c>
@@ -3435,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3445,27 +3458,27 @@
       <selection pane="bottomRight" activeCell="C46" sqref="C46:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
@@ -3497,7 +3510,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
@@ -3509,7 +3522,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3521,7 +3534,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3533,7 +3546,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3545,7 +3558,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>78</v>
       </c>
@@ -3557,7 +3570,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>78</v>
       </c>
@@ -3569,7 +3582,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>79</v>
       </c>
@@ -3581,7 +3594,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
@@ -3593,7 +3606,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -3605,7 +3618,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>146</v>
       </c>
@@ -3617,7 +3630,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>146</v>
       </c>
@@ -3629,7 +3642,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>146</v>
       </c>
@@ -3641,7 +3654,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>146</v>
       </c>
@@ -3653,7 +3666,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>150</v>
       </c>
@@ -3665,7 +3678,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>150</v>
       </c>
@@ -3677,7 +3690,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>150</v>
       </c>
@@ -3689,7 +3702,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
@@ -3701,7 +3714,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>80</v>
       </c>
@@ -3713,7 +3726,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>81</v>
       </c>
@@ -3725,7 +3738,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>81</v>
       </c>
@@ -3737,7 +3750,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>82</v>
       </c>
@@ -3749,7 +3762,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>82</v>
       </c>
@@ -3761,7 +3774,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>83</v>
       </c>
@@ -3773,7 +3786,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>83</v>
       </c>
@@ -3785,7 +3798,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>83</v>
       </c>
@@ -3797,7 +3810,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
@@ -3809,7 +3822,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
@@ -3821,7 +3834,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>84</v>
       </c>
@@ -3833,7 +3846,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
@@ -3845,7 +3858,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
@@ -3857,7 +3870,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>84</v>
       </c>
@@ -3869,7 +3882,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -3881,7 +3894,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
@@ -3893,7 +3906,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>85</v>
       </c>
@@ -3905,7 +3918,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>85</v>
       </c>
@@ -3917,7 +3930,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>86</v>
       </c>
@@ -3929,7 +3942,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>86</v>
       </c>
@@ -3941,7 +3954,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
@@ -3953,7 +3966,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>86</v>
       </c>
@@ -3965,7 +3978,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
@@ -3977,7 +3990,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>88</v>
       </c>
@@ -3989,7 +4002,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>88</v>
       </c>
@@ -4001,7 +4014,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>88</v>
       </c>
@@ -4013,7 +4026,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>88</v>
       </c>
@@ -4025,7 +4038,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>89</v>
       </c>
@@ -4037,7 +4050,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>90</v>
       </c>
@@ -4049,7 +4062,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>90</v>
       </c>
@@ -4061,7 +4074,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>90</v>
       </c>
@@ -4073,7 +4086,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>90</v>
       </c>
@@ -4085,7 +4098,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>90</v>
       </c>
@@ -4097,7 +4110,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>90</v>
       </c>
@@ -4109,7 +4122,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>90</v>
       </c>
@@ -4121,7 +4134,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>165</v>
       </c>
@@ -4133,7 +4146,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>91</v>
       </c>
@@ -4145,7 +4158,7 @@
       <c r="F59" s="12"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>91</v>
       </c>
@@ -4157,7 +4170,7 @@
       <c r="F60" s="12"/>
       <c r="G60" s="26"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
@@ -4169,7 +4182,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>91</v>
       </c>
@@ -4181,7 +4194,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>91</v>
       </c>
@@ -4193,7 +4206,7 @@
       <c r="F63" s="12"/>
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="14" t="s">
         <v>1</v>
       </c>
@@ -4209,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4219,27 +4232,27 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>92</v>
       </c>
@@ -4271,7 +4284,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>93</v>
       </c>
@@ -4283,7 +4296,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>93</v>
       </c>
@@ -4295,7 +4308,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
@@ -4307,7 +4320,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
@@ -4319,7 +4332,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
@@ -4331,7 +4344,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
@@ -4343,7 +4356,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>95</v>
       </c>
@@ -4355,7 +4368,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>169</v>
       </c>
@@ -4367,7 +4380,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>169</v>
       </c>
@@ -4379,7 +4392,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>169</v>
       </c>
@@ -4391,7 +4404,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>170</v>
       </c>
@@ -4403,7 +4416,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>170</v>
       </c>
@@ -4415,7 +4428,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>170</v>
       </c>
@@ -4427,7 +4440,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
@@ -4439,7 +4452,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>97</v>
       </c>
@@ -4451,7 +4464,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
@@ -4463,7 +4476,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>97</v>
       </c>
@@ -4475,7 +4488,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>98</v>
       </c>
@@ -4487,7 +4500,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
@@ -4499,7 +4512,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>98</v>
       </c>
@@ -4511,7 +4524,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>99</v>
       </c>
@@ -4523,7 +4536,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>99</v>
       </c>
@@ -4535,7 +4548,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
@@ -4547,7 +4560,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>100</v>
       </c>
@@ -4559,7 +4572,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
@@ -4571,7 +4584,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>100</v>
       </c>
@@ -4583,7 +4596,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>101</v>
       </c>
@@ -4595,7 +4608,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>101</v>
       </c>
@@ -4607,7 +4620,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>101</v>
       </c>
@@ -4619,7 +4632,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>102</v>
       </c>
@@ -4631,7 +4644,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>102</v>
       </c>
@@ -4643,7 +4656,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>102</v>
       </c>
@@ -4655,7 +4668,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>103</v>
       </c>
@@ -4667,7 +4680,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>103</v>
       </c>
@@ -4679,7 +4692,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
@@ -4691,7 +4704,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>104</v>
       </c>
@@ -4703,7 +4716,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>104</v>
       </c>
@@ -4715,7 +4728,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>104</v>
       </c>
@@ -4727,7 +4740,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>105</v>
       </c>
@@ -4739,7 +4752,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>105</v>
       </c>
@@ -4751,7 +4764,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>105</v>
       </c>
@@ -4763,7 +4776,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
@@ -4775,7 +4788,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>106</v>
       </c>
@@ -4787,7 +4800,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>106</v>
       </c>
@@ -4799,7 +4812,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>172</v>
       </c>
@@ -4811,7 +4824,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>172</v>
       </c>
@@ -4823,7 +4836,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -4835,7 +4848,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
@@ -4847,7 +4860,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>107</v>
       </c>
@@ -4859,7 +4872,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
@@ -4871,7 +4884,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>1</v>
       </c>
@@ -4889,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4899,27 +4912,27 @@
       <selection pane="bottomRight" activeCell="C32" sqref="C32:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
@@ -4951,7 +4964,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
@@ -4963,7 +4976,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>108</v>
       </c>
@@ -4975,7 +4988,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>108</v>
       </c>
@@ -4987,7 +5000,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
@@ -4999,7 +5012,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -5011,7 +5024,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="28" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>109</v>
       </c>
@@ -5023,7 +5036,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>109</v>
       </c>
@@ -5035,7 +5048,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>110</v>
       </c>
@@ -5047,7 +5060,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>110</v>
       </c>
@@ -5059,7 +5072,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
@@ -5071,7 +5084,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>111</v>
       </c>
@@ -5083,7 +5096,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>111</v>
       </c>
@@ -5095,7 +5108,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>176</v>
       </c>
@@ -5107,7 +5120,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>178</v>
       </c>
@@ -5119,7 +5132,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>178</v>
       </c>
@@ -5131,7 +5144,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>112</v>
       </c>
@@ -5143,7 +5156,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
@@ -5155,7 +5168,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -5167,7 +5180,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>113</v>
       </c>
@@ -5179,7 +5192,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>113</v>
       </c>
@@ -5191,7 +5204,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>114</v>
       </c>
@@ -5203,7 +5216,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>114</v>
       </c>
@@ -5215,7 +5228,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>210</v>
       </c>
@@ -5227,7 +5240,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>210</v>
       </c>
@@ -5239,7 +5252,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>115</v>
       </c>
@@ -5251,7 +5264,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>115</v>
       </c>
@@ -5263,7 +5276,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>115</v>
       </c>
@@ -5275,7 +5288,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>115</v>
       </c>
@@ -5287,7 +5300,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>115</v>
       </c>
@@ -5299,7 +5312,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>115</v>
       </c>
@@ -5311,7 +5324,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>116</v>
       </c>
@@ -5323,7 +5336,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>116</v>
       </c>
@@ -5335,7 +5348,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
@@ -5347,7 +5360,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>117</v>
       </c>
@@ -5359,7 +5372,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>118</v>
       </c>
@@ -5371,7 +5384,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -5383,7 +5396,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>119</v>
       </c>
@@ -5395,7 +5408,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>119</v>
       </c>
@@ -5407,7 +5420,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>120</v>
       </c>
@@ -5419,7 +5432,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>120</v>
       </c>
@@ -5431,7 +5444,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>120</v>
       </c>
@@ -5443,7 +5456,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B47" s="19" t="s">
         <v>121</v>
       </c>
@@ -5455,7 +5468,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B48" s="19" t="s">
         <v>121</v>
       </c>
@@ -5467,7 +5480,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B49" s="19" t="s">
         <v>122</v>
       </c>
@@ -5479,7 +5492,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B50" s="19" t="s">
         <v>122</v>
       </c>
@@ -5491,7 +5504,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B51" s="19" t="s">
         <v>211</v>
       </c>
@@ -5503,7 +5516,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B52" s="19" t="s">
         <v>211</v>
       </c>
@@ -5515,7 +5528,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B53" s="19" t="s">
         <v>123</v>
       </c>
@@ -5527,7 +5540,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>1</v>
       </c>
@@ -5545,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5555,27 +5568,27 @@
       <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -5595,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>124</v>
       </c>
@@ -5607,7 +5620,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>125</v>
       </c>
@@ -5619,7 +5632,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>125</v>
       </c>
@@ -5631,7 +5644,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>125</v>
       </c>
@@ -5643,7 +5656,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>125</v>
       </c>
@@ -5655,7 +5668,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>126</v>
       </c>
@@ -5667,7 +5680,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>127</v>
       </c>
@@ -5679,7 +5692,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>214</v>
       </c>
@@ -5691,7 +5704,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>128</v>
       </c>
@@ -5703,7 +5716,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>128</v>
       </c>
@@ -5715,7 +5728,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
@@ -5727,7 +5740,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>128</v>
       </c>
@@ -5739,7 +5752,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>129</v>
       </c>
@@ -5751,7 +5764,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>129</v>
       </c>
@@ -5763,7 +5776,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5775,7 +5788,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>130</v>
       </c>
@@ -5787,7 +5800,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>130</v>
       </c>
@@ -5799,7 +5812,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>130</v>
       </c>
@@ -5811,7 +5824,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>131</v>
       </c>
@@ -5823,7 +5836,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>131</v>
       </c>
@@ -5835,7 +5848,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>131</v>
       </c>
@@ -5847,7 +5860,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>132</v>
       </c>
@@ -5859,7 +5872,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>132</v>
       </c>
@@ -5871,7 +5884,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>132</v>
       </c>
@@ -5883,7 +5896,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>133</v>
       </c>
@@ -5895,7 +5908,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>133</v>
       </c>
@@ -5907,7 +5920,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>133</v>
       </c>
@@ -5919,7 +5932,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>134</v>
       </c>
@@ -5931,7 +5944,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>134</v>
       </c>
@@ -5943,7 +5956,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>134</v>
       </c>
@@ -5955,7 +5968,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>135</v>
       </c>
@@ -5967,7 +5980,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>135</v>
       </c>
@@ -5979,7 +5992,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>135</v>
       </c>
@@ -5991,7 +6004,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>136</v>
       </c>
@@ -6003,7 +6016,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>136</v>
       </c>
@@ -6015,7 +6028,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>136</v>
       </c>
@@ -6027,7 +6040,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>137</v>
       </c>
@@ -6039,7 +6052,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>137</v>
       </c>
@@ -6051,7 +6064,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>137</v>
       </c>
@@ -6063,7 +6076,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>138</v>
       </c>
@@ -6075,7 +6088,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>138</v>
       </c>
@@ -6087,7 +6100,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>138</v>
       </c>
@@ -6099,7 +6112,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>139</v>
       </c>
@@ -6111,7 +6124,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
         <v>139</v>
       </c>
@@ -6123,7 +6136,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>139</v>
       </c>
@@ -6135,7 +6148,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
         <v>140</v>
       </c>
@@ -6147,7 +6160,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
         <v>140</v>
       </c>
@@ -6159,7 +6172,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
         <v>140</v>
       </c>
@@ -6171,7 +6184,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
         <v>141</v>
       </c>
@@ -6183,7 +6196,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>141</v>
       </c>
@@ -6195,7 +6208,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B55" s="5" t="s">
         <v>141</v>
       </c>
@@ -6207,43 +6220,43 @@
       <c r="F55" s="13"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D60" s="2"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D61" s="2"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="2"/>
@@ -6251,7 +6264,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="2"/>
@@ -6259,7 +6272,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="2"/>
@@ -6267,7 +6280,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
         <v>1</v>
       </c>
@@ -6285,7 +6298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6295,27 +6308,27 @@
       <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="99.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="99.81640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -6335,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>180</v>
       </c>
@@ -6347,7 +6360,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>180</v>
       </c>
@@ -6359,7 +6372,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>180</v>
       </c>
@@ -6371,7 +6384,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>181</v>
       </c>
@@ -6383,7 +6396,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>181</v>
       </c>
@@ -6395,7 +6408,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>181</v>
       </c>
@@ -6407,7 +6420,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>182</v>
       </c>
@@ -6419,7 +6432,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>183</v>
       </c>
@@ -6431,7 +6444,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>183</v>
       </c>
@@ -6443,7 +6456,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>184</v>
       </c>
@@ -6455,7 +6468,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>184</v>
       </c>
@@ -6467,7 +6480,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>185</v>
       </c>
@@ -6479,7 +6492,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>185</v>
       </c>
@@ -6491,7 +6504,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="56" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>186</v>
       </c>
@@ -6503,7 +6516,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>186</v>
       </c>
@@ -6515,7 +6528,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>187</v>
       </c>
@@ -6527,7 +6540,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>187</v>
       </c>
@@ -6539,7 +6552,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>189</v>
       </c>
@@ -6551,7 +6564,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>189</v>
       </c>
@@ -6563,7 +6576,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>189</v>
       </c>
@@ -6575,7 +6588,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>190</v>
       </c>
@@ -6587,7 +6600,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>190</v>
       </c>
@@ -6599,7 +6612,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>191</v>
       </c>
@@ -6611,7 +6624,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>191</v>
       </c>
@@ -6623,7 +6636,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>218</v>
       </c>
@@ -6635,7 +6648,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>218</v>
       </c>
@@ -6647,7 +6660,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>192</v>
       </c>
@@ -6659,7 +6672,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>192</v>
       </c>
@@ -6671,7 +6684,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>219</v>
       </c>
@@ -6683,7 +6696,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>219</v>
       </c>
@@ -6695,7 +6708,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>193</v>
       </c>
@@ -6707,7 +6720,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>193</v>
       </c>
@@ -6719,7 +6732,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>193</v>
       </c>
@@ -6731,7 +6744,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>220</v>
       </c>
@@ -6743,7 +6756,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>220</v>
       </c>
@@ -6755,7 +6768,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>194</v>
       </c>
@@ -6767,7 +6780,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>194</v>
       </c>
@@ -6779,7 +6792,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>221</v>
       </c>
@@ -6791,7 +6804,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>195</v>
       </c>
@@ -6803,7 +6816,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>188</v>
       </c>
@@ -6815,7 +6828,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>188</v>
       </c>
@@ -6827,7 +6840,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>188</v>
       </c>
@@ -6839,7 +6852,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="28" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>188</v>
       </c>
@@ -6851,7 +6864,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>1</v>
       </c>
@@ -6867,6 +6880,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7073,15 +7095,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7109,6 +7122,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97760D3-D400-430A-AC80-A53E24A40535}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD35D031-FE44-469A-823F-EED0D1B06568}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7123,14 +7144,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97760D3-D400-430A-AC80-A53E24A40535}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
